--- a/FIGURES/genes_to_plot.xlsx
+++ b/FIGURES/genes_to_plot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="1080" windowWidth="25600" windowHeight="12620" tabRatio="500"/>
+    <workbookView xWindow="15260" yWindow="0" windowWidth="10240" windowHeight="13120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>SLC12A5</t>
   </si>
@@ -32,14 +32,168 @@
   <si>
     <t>The encoded protein may play a role in the control of
 craniofacial patterning and the differentiation and survival of inhibitory neurons in the forebrain.</t>
+  </si>
+  <si>
+    <t>CRYAB</t>
+  </si>
+  <si>
+    <t>chaperone;</t>
+  </si>
+  <si>
+    <t>EDN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This peptide is a potent vasoconstrictor and is produced by vascular endothelial cells. </t>
+  </si>
+  <si>
+    <t>SLC25A14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function </t>
+  </si>
+  <si>
+    <t>exprsision</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mitochondrial anion carrier proteins</t>
+  </si>
+  <si>
+    <t>brain, testis</t>
+  </si>
+  <si>
+    <t>BRD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transcriptional activator, binds histones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCDH7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> function in cell-cell recognition and adhesion</t>
+  </si>
+  <si>
+    <t>SEMA3A</t>
+  </si>
+  <si>
+    <t>chemorepulsive agent,
+inhibiting axonal outgrowth,  vital for normal neuronal pattern developmen</t>
+  </si>
+  <si>
+    <t>ASXL2</t>
+  </si>
+  <si>
+    <t>Putative Polycomb group (PcG) protein. PcG proteins act by forming multiprotein complexes, which are
+required to maintain the transcriptionally repressive state of homeotic genes throughout development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMX2 </t>
+  </si>
+  <si>
+    <t>dorsal telencephalon,
+olfactory neuroepithelium, and urogenetial system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It is expressed in the dorsal telencephalon during development
+in a low rostral-lateral to high caudal-medial gradient and is proposed to pattern the neocortex into defined
+functional areas. It is also expressed in embryonic and adult olfactory neuroepithelia where it complexes with
+eukaryotic translation initiation factor 4E (eIF4E) and possibly regulates mRNA transport or translation</t>
+  </si>
+  <si>
+    <t>UNC79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Component of the NALCN sodium channel complex, a cation channel activated either by neuropeptides
+substance P or neurotensin that controls neuronal excitability </t>
+  </si>
+  <si>
+    <t>TGFB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Involved in embryogenesis and cell differentiation</t>
+  </si>
+  <si>
+    <t>LHX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Potential transcription factor. May play a role in early mesoderm formation and later in lateral
+mesoderm differentiation and neurogenesis</t>
+  </si>
+  <si>
+    <t>NREP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">axonal renegeneration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLITRK1 </t>
+  </si>
+  <si>
+    <t>neurite outgrowth</t>
+  </si>
+  <si>
+    <t>SMAD6</t>
+  </si>
+  <si>
+    <t>This protein functions in the negative regulation of BMP and
+TGF-beta/activin-signalling</t>
+  </si>
+  <si>
+    <t>EPHB1</t>
+  </si>
+  <si>
+    <t>Receptor tyrosine kinase which binds promiscuously transmembrane ephrin-B family ligands residing on
+adjacent cells, leading to contact-dependent bidirectional signaling into neighboring cells.  regulates retinal axon guidance redirecting
+ipsilaterally ventrotemporal retinal ganglion cells axons at the optic chiasm midline.</t>
+  </si>
+  <si>
+    <t>LRRTM3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> presynaptic differentiation
+(By similarity). May play a role in the development and maintenance of the vertebrate nervous system</t>
+  </si>
+  <si>
+    <t>RBM6</t>
+  </si>
+  <si>
+    <t>RNA binding and nucleotide binding</t>
+  </si>
+  <si>
+    <t>CHTOP</t>
+  </si>
+  <si>
+    <t>the ligand-dependent activation of estrogen receptor target genes</t>
+  </si>
+  <si>
+    <t>NIPBL</t>
+  </si>
+  <si>
+    <t>facilitates enhancer-promoter communication of remote
+enhancers and plays a role in developmental regulation</t>
+  </si>
+  <si>
+    <t>HIPK3</t>
+  </si>
+  <si>
+    <t>Serine/threonine-protein kinase involved in transcription regulation, apoptosis and steroidogenic gene
+expression. Phosphorylates JUN and RUNX2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -80,20 +234,69 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -423,28 +626,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="240">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" ht="240">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="165">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="360">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="409">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="285">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="210">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="150">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="409">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="225">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="180">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="240">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
